--- a/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -37710,10 +37710,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>26530</v>
+        <v>26531</v>
       </c>
       <c r="D779" t="n">
-        <v>49433051</v>
+        <v>49434489</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -38190,10 +38190,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>10166</v>
+        <v>10167</v>
       </c>
       <c r="D789" t="n">
-        <v>17512560</v>
+        <v>17515281</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -43278,10 +43278,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D895" t="n">
-        <v>102164468</v>
+        <v>102161747</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -59206,10 +59206,10 @@
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>10860</v>
+        <v>10859</v>
       </c>
       <c r="D1227" t="n">
-        <v>19774685</v>
+        <v>19773247</v>
       </c>
       <c r="E1227" t="inlineStr">
         <is>
@@ -60934,10 +60934,10 @@
         </is>
       </c>
       <c r="C1263" t="n">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="D1263" t="n">
-        <v>14153115</v>
+        <v>14157331</v>
       </c>
       <c r="E1263" t="inlineStr">
         <is>
@@ -81046,10 +81046,10 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>39458</v>
+        <v>39459</v>
       </c>
       <c r="D1682" t="n">
-        <v>78169210</v>
+        <v>78169928</v>
       </c>
       <c r="E1682" t="inlineStr">
         <is>
@@ -81094,10 +81094,10 @@
         </is>
       </c>
       <c r="C1683" t="n">
-        <v>16009</v>
+        <v>16008</v>
       </c>
       <c r="D1683" t="n">
-        <v>30996268</v>
+        <v>30995550</v>
       </c>
       <c r="E1683" t="inlineStr">
         <is>
@@ -81526,10 +81526,10 @@
         </is>
       </c>
       <c r="C1692" t="n">
-        <v>15366</v>
+        <v>15367</v>
       </c>
       <c r="D1692" t="n">
-        <v>27358935</v>
+        <v>27359825</v>
       </c>
       <c r="E1692" t="inlineStr">
         <is>
@@ -81574,10 +81574,10 @@
         </is>
       </c>
       <c r="C1693" t="n">
-        <v>21919</v>
+        <v>21918</v>
       </c>
       <c r="D1693" t="n">
-        <v>36828461</v>
+        <v>36827571</v>
       </c>
       <c r="E1693" t="inlineStr">
         <is>
